--- a/Documentation/Languages/Languages.xlsx
+++ b/Documentation/Languages/Languages.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="166">
   <si>
     <t>TESTO IN GUI</t>
   </si>
@@ -414,13 +414,121 @@
   </si>
   <si>
     <t xml:space="preserve">GŁÓWNY MENU </t>
+  </si>
+  <si>
+    <t>новый игра</t>
+  </si>
+  <si>
+    <t>русский</t>
+  </si>
+  <si>
+    <t>стати́стика</t>
+  </si>
+  <si>
+    <t>язык</t>
+  </si>
+  <si>
+    <t>сложный уровень</t>
+  </si>
+  <si>
+    <t>пауза</t>
+  </si>
+  <si>
+    <t>игрок имя</t>
+  </si>
+  <si>
+    <t>очко</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>вставить имя</t>
+  </si>
+  <si>
+    <t>Отправить</t>
+  </si>
+  <si>
+    <t>вернуть</t>
+  </si>
+  <si>
+    <t>главный меню</t>
+  </si>
+  <si>
+    <t>том</t>
+  </si>
+  <si>
+    <t>разрешение</t>
+  </si>
+  <si>
+    <t>сохранить</t>
+  </si>
+  <si>
+    <t>выход</t>
+  </si>
+  <si>
+    <t>настро́йка</t>
+  </si>
+  <si>
+    <t>العربية</t>
+  </si>
+  <si>
+    <t>لعبة جديدة</t>
+  </si>
+  <si>
+    <t>اعدادات</t>
+  </si>
+  <si>
+    <t>إحصائية</t>
+  </si>
+  <si>
+    <t>مخرج</t>
+  </si>
+  <si>
+    <t>مصحف</t>
+  </si>
+  <si>
+    <t>دقة</t>
+  </si>
+  <si>
+    <t>الصعوبة</t>
+  </si>
+  <si>
+    <t>لغة</t>
+  </si>
+  <si>
+    <t>أَنقِذ</t>
+  </si>
+  <si>
+    <t>عَادَ</t>
+  </si>
+  <si>
+    <t>تورع</t>
+  </si>
+  <si>
+    <t>القائمة الرئيسية</t>
+  </si>
+  <si>
+    <t>اسم اللاعب</t>
+  </si>
+  <si>
+    <t>النقاط</t>
+  </si>
+  <si>
+    <t>زمن</t>
+  </si>
+  <si>
+    <t>أدخل الاسم</t>
+  </si>
+  <si>
+    <t>إرسال</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +557,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF18181B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF27272A"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A363F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -559,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -612,6 +760,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -894,20 +1075,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="3" width="36.7109375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="36.7109375" customWidth="1"/>
+    <col min="4" max="8" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -926,8 +1107,14 @@
       <c r="F1" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -936,8 +1123,10 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +1145,14 @@
       <c r="F3" s="21" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -976,8 +1171,14 @@
       <c r="F4" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -996,8 +1197,14 @@
       <c r="F5" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1016,8 +1223,14 @@
       <c r="F6" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
@@ -1026,8 +1239,10 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1047,8 +1262,16 @@
         <f>UPPER(F4)</f>
         <v>USTAWIENIE</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="10" t="str">
+        <f>UPPER(G4)</f>
+        <v>НАСТРО́ЙКА</v>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f>UPPER(H4)</f>
+        <v>اعدادات</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1290,14 @@
       <c r="F9" s="22" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1316,14 @@
       <c r="F10" s="22" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1107,8 +1342,14 @@
       <c r="F11" s="22" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1127,8 +1368,14 @@
       <c r="F12" s="22" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1147,8 +1394,14 @@
       <c r="F13" s="22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1167,8 +1420,14 @@
       <c r="F14" s="24" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1436,10 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1197,8 +1458,14 @@
       <c r="F16" s="21" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -1217,8 +1484,16 @@
       <c r="F17" s="22" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="11" t="str">
+        <f>UPPER(G14)</f>
+        <v>ВЕРНУТЬ</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f>UPPER(H14)</f>
+        <v>عَادَ</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1238,8 +1513,16 @@
         <f>UPPER(F4)</f>
         <v>USTAWIENIE</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="22" t="str">
+        <f>UPPER(G4)</f>
+        <v>НАСТРО́ЙКА</v>
+      </c>
+      <c r="H18" s="22" t="str">
+        <f>UPPER(H4)</f>
+        <v>اعدادات</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1258,8 +1541,14 @@
       <c r="F19" s="22" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
@@ -1279,8 +1568,16 @@
         <f>UPPER(F6)</f>
         <v>WYCHODZIĆ</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="12" t="str">
+        <f>UPPER(G6)</f>
+        <v>ВЫХОД</v>
+      </c>
+      <c r="H20" s="12" t="str">
+        <f>UPPER(H6)</f>
+        <v>مخرج</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>20</v>
       </c>
@@ -1289,8 +1586,10 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
@@ -1310,8 +1609,16 @@
         <f>UPPER(F5)</f>
         <v>STATYSTYKA</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="14" t="str">
+        <f>UPPER(G5)</f>
+        <v>СТАТИ́СТИКА</v>
+      </c>
+      <c r="H22" s="14" t="str">
+        <f>UPPER(H5)</f>
+        <v>إحصائية</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
@@ -1332,8 +1639,15 @@
         <f>UPPER(F14)</f>
         <v>WRACAĆ</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="11" t="str">
+        <f>UPPER(H14)</f>
+        <v>عَادَ</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
@@ -1352,8 +1666,14 @@
       <c r="F24" s="22" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
@@ -1372,8 +1692,14 @@
       <c r="F25" s="22" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1718,14 @@
       <c r="F26" s="24" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>26</v>
       </c>
@@ -1402,8 +1734,10 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
@@ -1422,8 +1756,14 @@
       <c r="F28" s="21" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>28</v>
       </c>
@@ -1441,6 +1781,12 @@
       </c>
       <c r="F29" s="24" t="s">
         <v>123</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Languages/Languages.xlsx
+++ b/Documentation/Languages/Languages.xlsx
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Languages/Languages.xlsx
+++ b/Documentation/Languages/Languages.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="200">
   <si>
     <t>TESTO IN GUI</t>
   </si>
@@ -522,13 +522,115 @@
   </si>
   <si>
     <t>إرسال</t>
+  </si>
+  <si>
+    <t>FRANÇAIS</t>
+  </si>
+  <si>
+    <t>Nouveau jeu</t>
+  </si>
+  <si>
+    <t>Statistiques</t>
+  </si>
+  <si>
+    <t>Quitter</t>
+  </si>
+  <si>
+    <t>Résolution</t>
+  </si>
+  <si>
+    <t>Difficulté</t>
+  </si>
+  <si>
+    <t>Langue</t>
+  </si>
+  <si>
+    <t>Nom du joueur</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
+    <t>Insérer nom</t>
+  </si>
+  <si>
+    <t>Soumettre</t>
+  </si>
+  <si>
+    <t>Réglages</t>
+  </si>
+  <si>
+    <t>日本語</t>
+  </si>
+  <si>
+    <t>新しいゲーム</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
+    <t>統計</t>
+  </si>
+  <si>
+    <t>終了する</t>
+  </si>
+  <si>
+    <t>音量</t>
+  </si>
+  <si>
+    <t>解像度</t>
+  </si>
+  <si>
+    <t>困難</t>
+  </si>
+  <si>
+    <t>言語</t>
+  </si>
+  <si>
+    <t>保存する</t>
+  </si>
+  <si>
+    <t>戻る</t>
+  </si>
+  <si>
+    <t>一時休止</t>
+  </si>
+  <si>
+    <t>メインメニュー</t>
+  </si>
+  <si>
+    <t>プレイヤーの名前</t>
+  </si>
+  <si>
+    <t>点数</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>名前の挿入</t>
+  </si>
+  <si>
+    <t>送信</t>
+  </si>
+  <si>
+    <t>RETOURNER</t>
+  </si>
+  <si>
+    <t>SAUVEGARDER</t>
+  </si>
+  <si>
+    <t>MENU PRINCIPAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,6 +690,26 @@
       <sz val="11"/>
       <color rgb="FF27272A"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A363F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
     </font>
     <font>
@@ -707,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -793,6 +915,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1075,20 +1209,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="3" width="36.7109375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="36.7109375" customWidth="1"/>
+    <col min="4" max="10" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1113,8 +1247,14 @@
       <c r="H1" s="26" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -1125,8 +1265,10 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1151,8 +1293,14 @@
       <c r="H3" s="21" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1177,8 +1325,14 @@
       <c r="H4" s="34" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1203,8 +1357,14 @@
       <c r="H5" s="22" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1229,8 +1389,14 @@
       <c r="H6" s="24" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
@@ -1241,8 +1407,10 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1270,8 +1438,16 @@
         <f>UPPER(H4)</f>
         <v>اعدادات</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="10" t="str">
+        <f>UPPER(I4)</f>
+        <v>RÉGLAGES</v>
+      </c>
+      <c r="J8" s="10" t="str">
+        <f>UPPER(J4)</f>
+        <v>設定</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1296,8 +1472,14 @@
       <c r="H9" s="34" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -1322,8 +1504,14 @@
       <c r="H10" s="34" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1348,8 +1536,14 @@
       <c r="H11" s="11" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1374,8 +1568,14 @@
       <c r="H12" s="34" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I12" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1400,8 +1600,14 @@
       <c r="H13" s="34" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1426,8 +1632,14 @@
       <c r="H14" s="35" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>14</v>
       </c>
@@ -1438,8 +1650,10 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1464,8 +1678,14 @@
       <c r="H16" s="36" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -1492,8 +1712,16 @@
         <f>UPPER(H14)</f>
         <v>عَادَ</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="11" t="str">
+        <f>UPPER(I14)</f>
+        <v>RETOURNER</v>
+      </c>
+      <c r="J17" s="11" t="str">
+        <f>UPPER(J14)</f>
+        <v>戻る</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1521,8 +1749,16 @@
         <f>UPPER(H4)</f>
         <v>اعدادات</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="22" t="str">
+        <f>UPPER(I4)</f>
+        <v>RÉGLAGES</v>
+      </c>
+      <c r="J18" s="22" t="str">
+        <f>UPPER(J4)</f>
+        <v>設定</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1547,8 +1783,14 @@
       <c r="H19" s="34" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
@@ -1576,8 +1818,16 @@
         <f>UPPER(H6)</f>
         <v>مخرج</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="12" t="str">
+        <f>UPPER(I6)</f>
+        <v>QUITTER</v>
+      </c>
+      <c r="J20" s="12" t="str">
+        <f>UPPER(J6)</f>
+        <v>終了する</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>20</v>
       </c>
@@ -1588,8 +1838,10 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
@@ -1617,8 +1869,16 @@
         <f>UPPER(H5)</f>
         <v>إحصائية</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="14" t="str">
+        <f>UPPER(I5)</f>
+        <v>STATISTIQUES</v>
+      </c>
+      <c r="J22" s="14" t="str">
+        <f>UPPER(J5)</f>
+        <v>統計</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
@@ -1646,8 +1906,16 @@
         <f>UPPER(H14)</f>
         <v>عَادَ</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="11" t="str">
+        <f>UPPER(I14)</f>
+        <v>RETOURNER</v>
+      </c>
+      <c r="J23" s="11" t="str">
+        <f>UPPER(J14)</f>
+        <v>戻る</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
@@ -1672,8 +1940,14 @@
       <c r="H24" s="34" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
@@ -1698,8 +1972,14 @@
       <c r="H25" s="34" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
@@ -1724,8 +2004,14 @@
       <c r="H26" s="35" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>26</v>
       </c>
@@ -1736,8 +2022,10 @@
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
@@ -1762,8 +2050,14 @@
       <c r="H28" s="27" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>28</v>
       </c>
@@ -1787,6 +2081,12 @@
       </c>
       <c r="H29" s="24" t="s">
         <v>165</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Languages/Languages.xlsx
+++ b/Documentation/Languages/Languages.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="208">
   <si>
     <t>TESTO IN GUI</t>
   </si>
@@ -624,6 +624,30 @@
   </si>
   <si>
     <t>MENU PRINCIPAL</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>tableColDate.text</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>дата</t>
+  </si>
+  <si>
+    <t>تاريخ</t>
+  </si>
+  <si>
+    <t>日付</t>
   </si>
 </sst>
 </file>
@@ -728,7 +752,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -825,11 +849,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -890,9 +945,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -927,6 +979,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1209,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,16 +1307,16 @@
       <c r="F1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>131</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1319,16 +1385,16 @@
       <c r="F4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="33" t="s">
         <v>150</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1383,7 +1449,7 @@
       <c r="F6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>146</v>
       </c>
       <c r="H6" s="24" t="s">
@@ -1466,10 +1532,10 @@
       <c r="F9" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="33" t="s">
         <v>153</v>
       </c>
       <c r="I9" s="22" t="s">
@@ -1498,10 +1564,10 @@
       <c r="F10" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="33" t="s">
         <v>154</v>
       </c>
       <c r="I10" s="22" t="s">
@@ -1565,7 +1631,7 @@
       <c r="G12" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>156</v>
       </c>
       <c r="I12" s="22" t="s">
@@ -1594,13 +1660,13 @@
       <c r="F13" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="36" t="s">
         <v>198</v>
       </c>
       <c r="J13" s="22" t="s">
@@ -1629,10 +1695,10 @@
       <c r="G14" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="36" t="s">
         <v>197</v>
       </c>
       <c r="J14" s="24" t="s">
@@ -1675,7 +1741,7 @@
       <c r="G16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="35" t="s">
         <v>159</v>
       </c>
       <c r="I16" s="21" t="s">
@@ -1780,10 +1846,10 @@
       <c r="G19" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="36" t="s">
         <v>199</v>
       </c>
       <c r="J19" s="11" t="s">
@@ -1791,7 +1857,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1828,7 +1894,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="19"/>
@@ -1842,19 +1908,19 @@
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="14" t="s">
         <v>105</v>
       </c>
       <c r="F22" s="14" t="str">
@@ -1865,7 +1931,7 @@
         <f>UPPER(G5)</f>
         <v>СТАТИ́СТИКА</v>
       </c>
-      <c r="H22" s="14" t="str">
+      <c r="H22" s="42" t="str">
         <f>UPPER(H5)</f>
         <v>إحصائية</v>
       </c>
@@ -1879,7 +1945,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1902,7 +1968,7 @@
       <c r="G23" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="11" t="str">
+      <c r="H23" s="43" t="str">
         <f>UPPER(H14)</f>
         <v>عَادَ</v>
       </c>
@@ -1916,7 +1982,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1934,21 +2000,21 @@
       <c r="F24" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="44" t="s">
         <v>161</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="38" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="41" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1966,10 +2032,10 @@
       <c r="F25" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="44" t="s">
         <v>162</v>
       </c>
       <c r="I25" s="11" t="s">
@@ -1980,7 +2046,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1995,97 +2061,129 @@
       <c r="E26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="22" t="s">
         <v>122</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="22" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F29" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G29" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H29" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I29" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J29" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E30" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F30" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G30" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H30" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I30" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J30" s="24" t="s">
         <v>196</v>
       </c>
     </row>
